--- a/monitor/fake_data.xlsx
+++ b/monitor/fake_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsingyu/Documents/前端程式設計/Homework/HW4/hsingyu120.github.io/monitor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsingyu/Documents/Front_End_Design/Homework/HW4/hsingyu120.github.io/monitor/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,27 +42,12 @@
     <t>使用者實際起床時間</t>
   </si>
   <si>
-    <t>第一天</t>
-  </si>
-  <si>
     <t>07:00:00</t>
   </si>
   <si>
-    <t>第二天</t>
-  </si>
-  <si>
     <t>08:00:00</t>
   </si>
   <si>
-    <t>第三天</t>
-  </si>
-  <si>
-    <t>第四天</t>
-  </si>
-  <si>
-    <t>第五天</t>
-  </si>
-  <si>
     <t>日期</t>
   </si>
   <si>
@@ -76,6 +61,21 @@
   </si>
   <si>
     <t>喚醒前一小時平均二氧化碳濃度</t>
+  </si>
+  <si>
+    <t>2020-01-02</t>
+  </si>
+  <si>
+    <t>2020-01-03</t>
+  </si>
+  <si>
+    <t>2020-01-04</t>
+  </si>
+  <si>
+    <t>2020-01-05</t>
+  </si>
+  <si>
+    <t>2020-01-06</t>
   </si>
 </sst>
 </file>
@@ -85,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +95,10 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -134,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -149,6 +153,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,15 +460,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -469,8 +481,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
+      <c r="A1" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -485,27 +497,27 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="5">
         <v>0.2986111111111111</v>
@@ -531,14 +543,14 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5">
         <v>0.28472222222222221</v>
@@ -564,14 +576,14 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5">
         <v>0.28819444444444448</v>
@@ -597,14 +609,14 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
+      <c r="A5" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5">
         <v>0.29166666666666669</v>
@@ -630,14 +642,14 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
+      <c r="A6" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="5">
         <v>0.27777777777777779</v>
@@ -663,7 +675,7 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -676,7 +688,28 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/monitor/fake_data.xlsx
+++ b/monitor/fake_data.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -721,7 +721,7 @@
   <dimension ref="A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:M7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/monitor/fake_data.xlsx
+++ b/monitor/fake_data.xlsx
@@ -63,12 +63,6 @@
     <t>喚醒前一小時平均二氧化碳濃度</t>
   </si>
   <si>
-    <t>2020-01-02</t>
-  </si>
-  <si>
-    <t>2020-01-03</t>
-  </si>
-  <si>
     <t>2020-01-04</t>
   </si>
   <si>
@@ -76,6 +70,12 @@
   </si>
   <si>
     <t>2020-01-06</t>
+  </si>
+  <si>
+    <t>2020-01-07</t>
+  </si>
+  <si>
+    <t>2020-01-08</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/monitor/fake_data.xlsx
+++ b/monitor/fake_data.xlsx
@@ -63,19 +63,19 @@
     <t>喚醒前一小時平均二氧化碳濃度</t>
   </si>
   <si>
-    <t>2020-01-04</t>
-  </si>
-  <si>
-    <t>2020-01-05</t>
-  </si>
-  <si>
     <t>2020-01-06</t>
   </si>
   <si>
+    <t>2020-01-10</t>
+  </si>
+  <si>
+    <t>2020-01-09</t>
+  </si>
+  <si>
+    <t>2020-01-08</t>
+  </si>
+  <si>
     <t>2020-01-07</t>
-  </si>
-  <si>
-    <t>2020-01-08</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -544,7 +544,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
